--- a/CAD/parameters.xlsx
+++ b/CAD/parameters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CDCA15-BB28-4514-BAC3-F155E826DBE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB00DEF-7E4F-4DA4-88EE-B5330788E6B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23070" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>DO_BLDC</t>
   </si>
@@ -38,6 +38,24 @@
   </si>
   <si>
     <t>D_Shaft_BLDC</t>
+  </si>
+  <si>
+    <t>D_Hole_BLDC</t>
+  </si>
+  <si>
+    <t>N_Hole_BLDC</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of screw hole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of hole </t>
+  </si>
+  <si>
+    <t>D_Wheel</t>
   </si>
 </sst>
 </file>
@@ -355,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,6 +423,45 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>45.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>235</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CAD/parameters.xlsx
+++ b/CAD/parameters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB00DEF-7E4F-4DA4-88EE-B5330788E6B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B558F6-5405-42AD-B6A2-7CAAE834F89D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23070" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>DO_BLDC</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>D_Wheel</t>
+  </si>
+  <si>
+    <t>W_Wall</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +465,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CAD/parameters.xlsx
+++ b/CAD/parameters.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B558F6-5405-42AD-B6A2-7CAAE834F89D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87340C7-2331-4894-A0A8-F3AE97233C03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23070" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>DO_BLDC</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>W_Wall</t>
+  </si>
+  <si>
+    <t>W_WheelCenter</t>
+  </si>
+  <si>
+    <t>T_WheelToShaft</t>
+  </si>
+  <si>
+    <t>Distance between shaft and wheel</t>
   </si>
 </sst>
 </file>
@@ -376,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,6 +485,31 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CAD/parameters.xlsx
+++ b/CAD/parameters.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87340C7-2331-4894-A0A8-F3AE97233C03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA36F3B9-187C-4A13-93D1-1666A96DCDD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23070" yWindow="1035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19845" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>DO_BLDC</t>
   </si>
@@ -68,6 +68,21 @@
   </si>
   <si>
     <t>Distance between shaft and wheel</t>
+  </si>
+  <si>
+    <t>N_NumInWheel</t>
+  </si>
+  <si>
+    <t>W_WheelOuter</t>
+  </si>
+  <si>
+    <t>W_Battery</t>
+  </si>
+  <si>
+    <t>L_Battery</t>
+  </si>
+  <si>
+    <t>H_Battery</t>
   </si>
 </sst>
 </file>
@@ -385,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -501,13 +516,68 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
